--- a/excel/example_app_tracker.xlsx
+++ b/excel/example_app_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D26AD2-2DB5-4BAE-8A69-861975B7AF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FD98F-4B47-47A5-AE79-D66B789D7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="6940" windowWidth="19440" windowHeight="13720" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="19440" windowHeight="13720" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="258">
   <si>
     <t>Company</t>
   </si>
@@ -969,6 +969,21 @@
   </si>
   <si>
     <t>Salary Max</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>Resume 1</t>
+  </si>
+  <si>
+    <t>Resume 2</t>
+  </si>
+  <si>
+    <t>Resume 3</t>
+  </si>
+  <si>
+    <t>Resume 4</t>
   </si>
 </sst>
 </file>
@@ -1576,11 +1591,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2050F9-523E-4C88-ABEB-54BB5869DFA0}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1601,7 +1616,7 @@
     <col min="15" max="15" width="8.26953125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="9" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" s="9" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1650,8 +1665,11 @@
       <c r="P1" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1675,11 +1693,11 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H33" ca="1" si="0">ROUND(RAND()*60+40,0)</f>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" ca="1" si="1">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>239</v>
@@ -1705,8 +1723,11 @@
         <f>TEXT(E2,"m/yy")</f>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1730,11 +1751,11 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>236</v>
@@ -1760,8 +1781,11 @@
         <f t="shared" ref="P3:P66" si="4">TEXT(E3,"m/yy")</f>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1785,11 +1809,11 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>237</v>
@@ -1810,8 +1834,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1835,11 +1862,11 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>238</v>
@@ -1862,8 +1889,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1887,11 +1917,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>235</v>
@@ -1917,8 +1947,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1942,11 +1975,11 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>235</v>
@@ -1969,8 +2002,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1994,11 +2030,11 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>236</v>
@@ -2022,8 +2058,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -2047,11 +2086,11 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>237</v>
@@ -2077,8 +2116,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2102,11 +2144,11 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>236</v>
@@ -2127,8 +2169,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2152,11 +2197,11 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>237</v>
@@ -2179,8 +2224,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -2204,11 +2252,11 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>237</v>
@@ -2234,8 +2282,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -2259,11 +2310,11 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>236</v>
@@ -2286,8 +2337,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2311,11 +2365,11 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>237</v>
@@ -2338,8 +2392,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>174</v>
       </c>
@@ -2363,11 +2420,11 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>236</v>
@@ -2387,8 +2444,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -2412,11 +2472,11 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>238</v>
@@ -2436,8 +2496,11 @@
         <f t="shared" si="4"/>
         <v>5/25</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -2461,11 +2524,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>236</v>
@@ -2488,8 +2551,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>86</v>
       </c>
@@ -2513,11 +2579,11 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>237</v>
@@ -2540,8 +2606,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -2565,11 +2634,11 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>236</v>
@@ -2592,8 +2661,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -2617,11 +2689,11 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>238</v>
@@ -2644,8 +2716,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -2669,11 +2744,11 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>238</v>
@@ -2693,8 +2768,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -2718,11 +2796,11 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>235</v>
@@ -2745,8 +2823,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2770,11 +2851,11 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>235</v>
@@ -2797,8 +2878,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -2822,11 +2906,11 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>238</v>
@@ -2852,8 +2936,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -2877,11 +2964,11 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>237</v>
@@ -2904,8 +2991,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2929,11 +3019,11 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>237</v>
@@ -2953,8 +3043,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2978,11 +3071,11 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>238</v>
@@ -3002,8 +3095,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -3027,11 +3123,11 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>236</v>
@@ -3054,8 +3150,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -3079,11 +3178,11 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>237</v>
@@ -3103,8 +3202,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>157</v>
       </c>
@@ -3128,11 +3230,11 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>236</v>
@@ -3155,8 +3257,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -3180,11 +3285,11 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>239</v>
@@ -3207,8 +3312,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -3232,11 +3340,11 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>239</v>
@@ -3257,8 +3365,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -3282,11 +3393,11 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>238</v>
@@ -3307,8 +3418,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3332,11 +3446,11 @@
       </c>
       <c r="H34">
         <f t="shared" ref="H34:H65" ca="1" si="5">ROUND(RAND()*60+40,0)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" ca="1" si="6">ROUND(RAND()*40+90,0)</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>239</v>
@@ -3356,8 +3470,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -3381,11 +3498,11 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>237</v>
@@ -3411,8 +3528,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -3436,11 +3556,11 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>239</v>
@@ -3461,8 +3581,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -3486,11 +3609,11 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>235</v>
@@ -3511,8 +3634,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -3536,11 +3662,11 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>237</v>
@@ -3560,8 +3686,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -3585,11 +3714,11 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>238</v>
@@ -3610,8 +3739,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -3639,7 +3771,7 @@
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>239</v>
@@ -3662,8 +3794,11 @@
         <f t="shared" si="4"/>
         <v>1/25</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q40" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -3687,11 +3822,11 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>239</v>
@@ -3711,8 +3846,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q41" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>157</v>
       </c>
@@ -3736,11 +3874,11 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>237</v>
@@ -3760,8 +3898,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -3785,11 +3926,11 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="6"/>
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>239</v>
@@ -3810,8 +3951,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -3835,11 +3979,11 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>239</v>
@@ -3859,8 +4003,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -3884,11 +4031,11 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>236</v>
@@ -3908,8 +4055,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3933,11 +4083,11 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>239</v>
@@ -3963,8 +4113,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -3988,11 +4141,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>235</v>
@@ -4012,8 +4165,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -4037,11 +4193,11 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>237</v>
@@ -4061,8 +4217,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -4086,11 +4245,11 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>236</v>
@@ -4113,8 +4272,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q49" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -4138,11 +4300,11 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>236</v>
@@ -4163,8 +4325,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q50" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -4188,11 +4353,11 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>235</v>
@@ -4212,8 +4377,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q51" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -4237,11 +4405,11 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>237</v>
@@ -4264,8 +4432,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -4289,11 +4460,11 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>239</v>
@@ -4313,8 +4484,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -4338,11 +4512,11 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>237</v>
@@ -4362,8 +4536,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -4387,11 +4564,11 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>238</v>
@@ -4417,8 +4594,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q55" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -4442,11 +4622,11 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>239</v>
@@ -4466,8 +4646,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -4491,11 +4674,11 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>236</v>
@@ -4515,8 +4698,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -4540,11 +4726,11 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>237</v>
@@ -4564,8 +4750,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -4589,11 +4778,11 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="6"/>
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>236</v>
@@ -4616,8 +4805,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -4641,11 +4833,11 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>238</v>
@@ -4665,8 +4857,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -4690,11 +4885,11 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="6"/>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>235</v>
@@ -4715,8 +4910,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -4740,7 +4938,7 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="6"/>
@@ -4764,8 +4962,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q62" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -4789,11 +4990,11 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="6"/>
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>235</v>
@@ -4813,8 +5014,11 @@
         <f t="shared" si="4"/>
         <v>2/25</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4838,11 +5042,11 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>235</v>
@@ -4865,8 +5069,11 @@
         <f t="shared" si="4"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -4890,11 +5097,11 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>236</v>
@@ -4914,8 +5121,11 @@
         <f t="shared" si="4"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -4939,11 +5149,11 @@
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H86" ca="1" si="9">ROUND(RAND()*60+40,0)</f>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I86" ca="1" si="10">ROUND(RAND()*40+90,0)</f>
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>237</v>
@@ -4967,8 +5177,11 @@
         <f t="shared" si="4"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -4992,11 +5205,11 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>238</v>
@@ -5019,8 +5232,11 @@
         <f t="shared" ref="P67:P86" si="13">TEXT(E67,"m/yy")</f>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>175</v>
       </c>
@@ -5044,7 +5260,7 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="9"/>
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="10"/>
@@ -5074,8 +5290,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5099,11 +5318,11 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>237</v>
@@ -5126,8 +5345,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -5151,11 +5373,11 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>237</v>
@@ -5181,8 +5403,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q70" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -5206,11 +5431,11 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>237</v>
@@ -5233,8 +5458,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -5258,11 +5486,11 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>238</v>
@@ -5282,8 +5510,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -5307,11 +5538,11 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>236</v>
@@ -5334,8 +5565,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>90</v>
       </c>
@@ -5359,11 +5593,11 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>236</v>
@@ -5384,8 +5618,11 @@
         <f t="shared" si="13"/>
         <v>3/25</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -5409,11 +5646,11 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>235</v>
@@ -5436,8 +5673,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -5461,11 +5701,11 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>236</v>
@@ -5488,8 +5728,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>197</v>
       </c>
@@ -5513,11 +5756,11 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="9"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="10"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>235</v>
@@ -5540,8 +5783,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>79</v>
       </c>
@@ -5565,11 +5811,11 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>238</v>
@@ -5589,8 +5835,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>199</v>
       </c>
@@ -5614,11 +5863,11 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="10"/>
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>238</v>
@@ -5638,8 +5887,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5663,7 +5915,7 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="9"/>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="10"/>
@@ -5687,8 +5939,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>203</v>
       </c>
@@ -5712,11 +5967,11 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>239</v>
@@ -5739,8 +5994,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -5764,11 +6022,11 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>238</v>
@@ -5791,8 +6049,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -5816,11 +6077,11 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="9"/>
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>239</v>
@@ -5840,8 +6101,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>211</v>
       </c>
@@ -5865,11 +6129,11 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="9"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="10"/>
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>237</v>
@@ -5892,8 +6156,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>213</v>
       </c>
@@ -5917,11 +6184,11 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>237</v>
@@ -5941,8 +6208,11 @@
         <f t="shared" si="13"/>
         <v>4/25</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5966,11 +6236,11 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>235</v>
@@ -5990,6 +6260,9 @@
       <c r="P86" t="str">
         <f t="shared" si="13"/>
         <v>4/25</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7082,7 +7355,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">(Tracker!H2+Tracker!I2)/2</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
         <v>0.8</v>
@@ -7112,7 +7385,7 @@
       </c>
       <c r="L2">
         <f ca="1">IF(D2=0, 0.5, MIN(1, MAX(0, (E2 * F2 * G2 * H2 * (D2 / 120)))))</f>
-        <v>0.2888</v>
+        <v>0.29184000000000004</v>
       </c>
       <c r="M2">
         <f>IF(J2=0, 0.2, (0.4 * J2 + 0.3 * I2 + 0.3 * K2))</f>
@@ -7120,7 +7393,7 @@
       </c>
       <c r="O2">
         <f ca="1">L2/M2</f>
-        <v>0.44430769230769235</v>
+        <v>0.44898461538461554</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -7138,7 +7411,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">(Tracker!H3+Tracker!I3)/2</f>
-        <v>84</v>
+        <v>93.5</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
@@ -7168,7 +7441,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="1">IF(D3=0, 0.5, MIN(1, MAX(0, (E3 * F3 * G3 * H3 * (D3 / 120)))))</f>
-        <v>0.2394</v>
+        <v>0.26647500000000002</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" si="2">IF(J3=0, 0.2, (0.4 * J3 + 0.3 * I3 + 0.3 * K3))</f>
@@ -7176,7 +7449,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">L3/M3</f>
-        <v>0.39245901639344255</v>
+        <v>0.43684426229508194</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -7194,7 +7467,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">(Tracker!H4+Tracker!I4)/2</f>
-        <v>87</v>
+        <v>87.5</v>
       </c>
       <c r="E4" s="1">
         <v>0.8</v>
@@ -7224,7 +7497,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22040000000000004</v>
+        <v>0.22166666666666668</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -7232,7 +7505,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33907692307692316</v>
+        <v>0.34102564102564109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -7250,7 +7523,7 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">(Tracker!H5+Tracker!I5)/2</f>
-        <v>90.5</v>
+        <v>92.5</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -7280,7 +7553,7 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L68" ca="1" si="4">IF(D5=0, 0.5, MIN(1, MAX(0, (E5 * F5 * G5 * H5 * (D5 / 120)))))</f>
-        <v>0.30951000000000001</v>
+        <v>0.31635000000000002</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M68" si="5">IF(J5=0, 0.2, (0.4 * J5 + 0.3 * I5 + 0.3 * K5))</f>
@@ -7288,7 +7561,7 @@
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O68" ca="1" si="6">L5/M5</f>
-        <v>0.44856521739130439</v>
+        <v>0.45847826086956528</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -7306,7 +7579,7 @@
       </c>
       <c r="D6" s="1">
         <f ca="1">(Tracker!H6+Tracker!I6)/2</f>
-        <v>114</v>
+        <v>95.5</v>
       </c>
       <c r="E6" s="1">
         <v>0.8</v>
@@ -7336,7 +7609,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38987999999999995</v>
+        <v>0.32660999999999996</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -7344,7 +7617,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68399999999999983</v>
+        <v>0.57299999999999984</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -7362,7 +7635,7 @@
       </c>
       <c r="D7" s="1">
         <f ca="1">(Tracker!H7+Tracker!I7)/2</f>
-        <v>82</v>
+        <v>75.5</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
@@ -7392,7 +7665,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31159999999999999</v>
+        <v>0.28689999999999999</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -7400,7 +7673,7 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54666666666666663</v>
+        <v>0.5033333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -7418,7 +7691,7 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">(Tracker!H8+Tracker!I8)/2</f>
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
         <v>0.8</v>
@@ -7448,7 +7721,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37239999999999995</v>
+        <v>0.35466666666666669</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -7456,7 +7729,7 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61049180327868835</v>
+        <v>0.58142076502732232</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -7474,7 +7747,7 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">(Tracker!H9+Tracker!I9)/2</f>
-        <v>94.5</v>
+        <v>112.5</v>
       </c>
       <c r="E9" s="1">
         <v>0.8</v>
@@ -7504,7 +7777,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48478500000000002</v>
+        <v>0.577125</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
@@ -7512,7 +7785,7 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74582307692307703</v>
+        <v>0.88788461538461549</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -7530,7 +7803,7 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">(Tracker!H10+Tracker!I10)/2</f>
-        <v>88.5</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1">
         <v>0.8</v>
@@ -7560,7 +7833,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22420000000000004</v>
+        <v>0.24320000000000006</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
@@ -7568,7 +7841,7 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3675409836065574</v>
+        <v>0.39868852459016396</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -7586,7 +7859,7 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">(Tracker!H11+Tracker!I11)/2</f>
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
@@ -7616,7 +7889,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3135</v>
+        <v>0.22515000000000002</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
@@ -7624,7 +7897,7 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48230769230769238</v>
+        <v>0.34638461538461546</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -7642,7 +7915,7 @@
       </c>
       <c r="D12" s="1">
         <f ca="1">(Tracker!H12+Tracker!I12)/2</f>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1">
         <v>0.8</v>
@@ -7672,7 +7945,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32147999999999999</v>
+        <v>0.27701999999999999</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
@@ -7680,7 +7953,7 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49458461538461546</v>
+        <v>0.42618461538461544</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -7698,7 +7971,7 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">(Tracker!H13+Tracker!I13)/2</f>
-        <v>84.5</v>
+        <v>93</v>
       </c>
       <c r="E13" s="1">
         <v>0.8</v>
@@ -7728,7 +8001,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28899000000000002</v>
+        <v>0.31806000000000001</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
@@ -7736,7 +8009,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47375409836065568</v>
+        <v>0.52140983606557367</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -7754,7 +8027,7 @@
       </c>
       <c r="D14" s="1">
         <f ca="1">(Tracker!H14+Tracker!I14)/2</f>
-        <v>102.5</v>
+        <v>104.5</v>
       </c>
       <c r="E14" s="1">
         <v>0.8</v>
@@ -7784,7 +8057,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45441666666666658</v>
+        <v>0.46328333333333327</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
@@ -7792,7 +8065,7 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69910256410256411</v>
+        <v>0.71274358974358976</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -7810,7 +8083,7 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">(Tracker!H15+Tracker!I15)/2</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
@@ -7840,7 +8113,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21660000000000001</v>
+        <v>0.22230000000000003</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
@@ -7848,7 +8121,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35508196721311475</v>
+        <v>0.3644262295081967</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -7866,7 +8139,7 @@
       </c>
       <c r="D16" s="1">
         <f ca="1">(Tracker!H16+Tracker!I16)/2</f>
-        <v>110.5</v>
+        <v>91.5</v>
       </c>
       <c r="E16" s="1">
         <v>0.8</v>
@@ -7896,7 +8169,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27993333333333337</v>
+        <v>0.23180000000000003</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
@@ -7904,7 +8177,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40570048309178752</v>
+        <v>0.33594202898550735</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -7922,7 +8195,7 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">(Tracker!H17+Tracker!I17)/2</f>
-        <v>107.5</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1">
         <v>0.8</v>
@@ -7952,7 +8225,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49020000000000002</v>
+        <v>0.35568000000000005</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
@@ -7960,7 +8233,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80360655737704911</v>
+        <v>0.58308196721311478</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -7978,7 +8251,7 @@
       </c>
       <c r="D18" s="1">
         <f ca="1">(Tracker!H18+Tracker!I18)/2</f>
-        <v>93.5</v>
+        <v>89.5</v>
       </c>
       <c r="E18" s="1">
         <v>0.8</v>
@@ -8008,7 +8281,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42636000000000002</v>
+        <v>0.40812000000000004</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
@@ -8016,7 +8289,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65593846153846169</v>
+        <v>0.62787692307692322</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -8034,7 +8307,7 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">(Tracker!H19+Tracker!I19)/2</f>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
@@ -8064,7 +8337,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23560000000000003</v>
+        <v>0.2254666666666667</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
@@ -8072,7 +8345,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38622950819672131</v>
+        <v>0.36961748633879782</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -8090,7 +8363,7 @@
       </c>
       <c r="D20" s="1">
         <f ca="1">(Tracker!H20+Tracker!I20)/2</f>
-        <v>83.5</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1">
         <v>0.8</v>
@@ -8120,7 +8393,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38075999999999999</v>
+        <v>0.40584000000000003</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
@@ -8128,7 +8401,7 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5518260869565218</v>
+        <v>0.58817391304347832</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -8146,7 +8419,7 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">(Tracker!H21+Tracker!I21)/2</f>
-        <v>91.5</v>
+        <v>95</v>
       </c>
       <c r="E21" s="1">
         <v>0.8</v>
@@ -8176,7 +8449,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38247000000000003</v>
+        <v>0.39710000000000001</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
@@ -8184,7 +8457,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55430434782608706</v>
+        <v>0.57550724637681161</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -8202,7 +8475,7 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">(Tracker!H22+Tracker!I22)/2</f>
-        <v>88.5</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1">
         <v>0.8</v>
@@ -8232,7 +8505,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22420000000000004</v>
+        <v>0.24320000000000006</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
@@ -8240,7 +8513,7 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39333333333333337</v>
+        <v>0.42666666666666669</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -8258,7 +8531,7 @@
       </c>
       <c r="D23" s="1">
         <f ca="1">(Tracker!H23+Tracker!I23)/2</f>
-        <v>100.5</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1">
         <v>0.8</v>
@@ -8288,7 +8561,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25460000000000005</v>
+        <v>0.25586666666666669</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
@@ -8296,7 +8569,7 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44666666666666671</v>
+        <v>0.44888888888888889</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -8314,7 +8587,7 @@
       </c>
       <c r="D24" s="1">
         <f ca="1">(Tracker!H24+Tracker!I24)/2</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>0.8</v>
@@ -8344,7 +8617,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36859999999999998</v>
+        <v>0.34579999999999994</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
@@ -8352,7 +8625,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53420289855072467</v>
+        <v>0.50115942028985505</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -8370,7 +8643,7 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">(Tracker!H25+Tracker!I25)/2</f>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E25" s="1">
         <v>0.8</v>
@@ -8400,7 +8673,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30779999999999996</v>
+        <v>0.33515999999999996</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
@@ -8408,7 +8681,7 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47353846153846152</v>
+        <v>0.51563076923076923</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -8426,7 +8699,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">(Tracker!H26+Tracker!I26)/2</f>
-        <v>105.5</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1">
         <v>0.8</v>
@@ -8456,7 +8729,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26726666666666671</v>
+        <v>0.27360000000000007</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
@@ -8464,7 +8737,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41117948717948732</v>
+        <v>0.42092307692307707</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -8482,7 +8755,7 @@
       </c>
       <c r="D27" s="1">
         <f ca="1">(Tracker!H27+Tracker!I27)/2</f>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E27" s="1">
         <v>0.8</v>
@@ -8512,7 +8785,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40128000000000008</v>
+        <v>0.34453333333333341</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
@@ -8520,7 +8793,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58156521739130451</v>
+        <v>0.49932367149758472</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -8538,7 +8811,7 @@
       </c>
       <c r="D28" s="1">
         <f ca="1">(Tracker!H28+Tracker!I28)/2</f>
-        <v>89</v>
+        <v>97.5</v>
       </c>
       <c r="E28" s="1">
         <v>0.8</v>
@@ -8568,7 +8841,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25365000000000004</v>
+        <v>0.27787500000000004</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
@@ -8576,7 +8849,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41581967213114757</v>
+        <v>0.4555327868852459</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -8594,7 +8867,7 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">(Tracker!H29+Tracker!I29)/2</f>
-        <v>94.5</v>
+        <v>74.5</v>
       </c>
       <c r="E29" s="1">
         <v>0.8</v>
@@ -8624,7 +8897,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37705499999999997</v>
+        <v>0.29725499999999999</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
@@ -8632,7 +8905,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58008461538461542</v>
+        <v>0.45731538461538468</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -8650,7 +8923,7 @@
       </c>
       <c r="D30" s="1">
         <f ca="1">(Tracker!H30+Tracker!I30)/2</f>
-        <v>83.5</v>
+        <v>96.5</v>
       </c>
       <c r="E30" s="1">
         <v>0.8</v>
@@ -8680,7 +8953,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4230666666666667</v>
+        <v>0.48893333333333344</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
@@ -8688,7 +8961,7 @@
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.69355191256830595</v>
+        <v>0.80153005464480875</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -8706,7 +8979,7 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">(Tracker!H31+Tracker!I31)/2</f>
-        <v>86.5</v>
+        <v>72.5</v>
       </c>
       <c r="E31" s="1">
         <v>0.8</v>
@@ -8736,7 +9009,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21913333333333337</v>
+        <v>0.18366666666666667</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
@@ -8744,7 +9017,7 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33712820512820524</v>
+        <v>0.28256410256410264</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -8762,7 +9035,7 @@
       </c>
       <c r="D32" s="1">
         <f ca="1">(Tracker!H32+Tracker!I32)/2</f>
-        <v>70.5</v>
+        <v>87.5</v>
       </c>
       <c r="E32" s="1">
         <v>0.8</v>
@@ -8792,7 +9065,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26789999999999997</v>
+        <v>0.33249999999999996</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
@@ -8800,7 +9073,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41215384615384615</v>
+        <v>0.5115384615384615</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -8818,7 +9091,7 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">(Tracker!H33+Tracker!I33)/2</f>
-        <v>76.5</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1">
         <v>0.8</v>
@@ -8848,7 +9121,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19380000000000003</v>
+        <v>0.21786666666666671</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
@@ -8856,7 +9129,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28086956521739137</v>
+        <v>0.31574879227053149</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -8874,7 +9147,7 @@
       </c>
       <c r="D34" s="1">
         <f ca="1">(Tracker!H34+Tracker!I34)/2</f>
-        <v>88</v>
+        <v>87.5</v>
       </c>
       <c r="E34" s="1">
         <v>0.8</v>
@@ -8904,7 +9177,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36784</v>
+        <v>0.36575000000000002</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
@@ -8912,7 +9185,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56590769230769233</v>
+        <v>0.56269230769230782</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -8930,7 +9203,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">(Tracker!H35+Tracker!I35)/2</f>
-        <v>82.5</v>
+        <v>89</v>
       </c>
       <c r="E35" s="1">
         <v>0.8</v>
@@ -8960,7 +9233,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25080000000000002</v>
+        <v>0.27056000000000002</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
@@ -8968,7 +9241,7 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38584615384615395</v>
+        <v>0.41624615384615393</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -8986,7 +9259,7 @@
       </c>
       <c r="D36" s="1">
         <f ca="1">(Tracker!H36+Tracker!I36)/2</f>
-        <v>102</v>
+        <v>92.5</v>
       </c>
       <c r="E36" s="1">
         <v>0.8</v>
@@ -9016,7 +9289,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42636000000000002</v>
+        <v>0.38665000000000005</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
@@ -9024,7 +9297,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="6"/>
-        <v>0.65593846153846169</v>
+        <v>0.59484615384615402</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -9042,7 +9315,7 @@
       </c>
       <c r="D37" s="1">
         <f ca="1">(Tracker!H37+Tracker!I37)/2</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1">
         <v>0.8</v>
@@ -9072,7 +9345,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41800000000000004</v>
+        <v>0.39292000000000005</v>
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
@@ -9080,7 +9353,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73333333333333328</v>
+        <v>0.68933333333333335</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -9098,7 +9371,7 @@
       </c>
       <c r="D38" s="1">
         <f ca="1">(Tracker!H38+Tracker!I38)/2</f>
-        <v>67.5</v>
+        <v>92.5</v>
       </c>
       <c r="E38" s="1">
         <v>0.8</v>
@@ -9128,7 +9401,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23085</v>
+        <v>0.31635000000000002</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
@@ -9136,7 +9409,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35515384615384621</v>
+        <v>0.48669230769230781</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -9154,7 +9427,7 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">(Tracker!H39+Tracker!I39)/2</f>
-        <v>70.5</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1">
         <v>0.8</v>
@@ -9184,7 +9457,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25003999999999998</v>
+        <v>0.26954666666666666</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
@@ -9192,7 +9465,7 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36237681159420293</v>
+        <v>0.39064734299516912</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -9210,7 +9483,7 @@
       </c>
       <c r="D40" s="1">
         <f ca="1">(Tracker!H40+Tracker!I40)/2</f>
-        <v>77.5</v>
+        <v>87.5</v>
       </c>
       <c r="E40" s="1">
         <v>0.8</v>
@@ -9240,7 +9513,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3435833333333333</v>
+        <v>0.38791666666666658</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
@@ -9248,7 +9521,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52858974358974364</v>
+        <v>0.59679487179487178</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -9266,7 +9539,7 @@
       </c>
       <c r="D41" s="1">
         <f ca="1">(Tracker!H41+Tracker!I41)/2</f>
-        <v>85.5</v>
+        <v>90.5</v>
       </c>
       <c r="E41" s="1">
         <v>0.8</v>
@@ -9296,7 +9569,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37904999999999994</v>
+        <v>0.40121666666666661</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
@@ -9304,7 +9577,7 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58315384615384613</v>
+        <v>0.6172564102564102</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -9322,7 +9595,7 @@
       </c>
       <c r="D42" s="1">
         <f ca="1">(Tracker!H42+Tracker!I42)/2</f>
-        <v>97.5</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1">
         <v>0.8</v>
@@ -9352,7 +9625,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43224999999999991</v>
+        <v>0.40786666666666666</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
@@ -9360,7 +9633,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66499999999999992</v>
+        <v>0.62748717948717958</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -9378,7 +9651,7 @@
       </c>
       <c r="D43" s="1">
         <f ca="1">(Tracker!H43+Tracker!I43)/2</f>
-        <v>110.5</v>
+        <v>108</v>
       </c>
       <c r="E43" s="1">
         <v>0.8</v>
@@ -9408,7 +9681,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37790999999999997</v>
+        <v>0.36936000000000002</v>
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
@@ -9416,7 +9689,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58140000000000003</v>
+        <v>0.56824615384615396</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -9434,7 +9707,7 @@
       </c>
       <c r="D44" s="1">
         <f ca="1">(Tracker!H44+Tracker!I44)/2</f>
-        <v>95</v>
+        <v>90.5</v>
       </c>
       <c r="E44" s="1">
         <v>0.8</v>
@@ -9464,7 +9737,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46328333333333327</v>
+        <v>0.44133833333333328</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
@@ -9472,7 +9745,7 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71274358974358976</v>
+        <v>0.67898205128205125</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -9490,7 +9763,7 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">(Tracker!H45+Tracker!I45)/2</f>
-        <v>93.5</v>
+        <v>94.5</v>
       </c>
       <c r="E45" s="1">
         <v>0.8</v>
@@ -9520,7 +9793,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31977</v>
+        <v>0.32318999999999998</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
@@ -9528,7 +9801,7 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52421311475409826</v>
+        <v>0.52981967213114745</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -9546,7 +9819,7 @@
       </c>
       <c r="D46" s="1">
         <f ca="1">(Tracker!H46+Tracker!I46)/2</f>
-        <v>105</v>
+        <v>80.5</v>
       </c>
       <c r="E46" s="1">
         <v>0.8</v>
@@ -9576,7 +9849,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41894999999999993</v>
+        <v>0.32119499999999995</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
@@ -9584,7 +9857,7 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6445384615384615</v>
+        <v>0.49414615384615385</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -9602,7 +9875,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">(Tracker!H47+Tracker!I47)/2</f>
-        <v>106</v>
+        <v>93.5</v>
       </c>
       <c r="E47" s="1">
         <v>0.8</v>
@@ -9632,7 +9905,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32224000000000003</v>
+        <v>0.28423999999999999</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
@@ -9640,7 +9913,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56533333333333335</v>
+        <v>0.49866666666666659</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -9658,7 +9931,7 @@
       </c>
       <c r="D48" s="1">
         <f ca="1">(Tracker!H48+Tracker!I48)/2</f>
-        <v>102.5</v>
+        <v>86.5</v>
       </c>
       <c r="E48" s="1">
         <v>0.8</v>
@@ -9688,7 +9961,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31159999999999999</v>
+        <v>0.26296000000000003</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
@@ -9696,7 +9969,7 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47938461538461541</v>
+        <v>0.40455384615384626</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -9714,7 +9987,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">(Tracker!H49+Tracker!I49)/2</f>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>0.8</v>
@@ -9744,7 +10017,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30704000000000004</v>
+        <v>0.27664</v>
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
@@ -9752,7 +10025,7 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50334426229508189</v>
+        <v>0.45350819672131137</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -9770,7 +10043,7 @@
       </c>
       <c r="D50" s="1">
         <f ca="1">(Tracker!H50+Tracker!I50)/2</f>
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
       <c r="E50" s="1">
         <v>0.8</v>
@@ -9800,7 +10073,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35149999999999998</v>
+        <v>0.36289999999999994</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
@@ -9808,7 +10081,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57622950819672114</v>
+        <v>0.59491803278688504</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -9826,7 +10099,7 @@
       </c>
       <c r="D51" s="1">
         <f ca="1">(Tracker!H51+Tracker!I51)/2</f>
-        <v>101.5</v>
+        <v>93.5</v>
       </c>
       <c r="E51" s="1">
         <v>0.8</v>
@@ -9856,7 +10129,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30856</v>
+        <v>0.28423999999999999</v>
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
@@ -9864,7 +10137,7 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54133333333333322</v>
+        <v>0.49866666666666659</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -9882,7 +10155,7 @@
       </c>
       <c r="D52" s="1">
         <f ca="1">(Tracker!H52+Tracker!I52)/2</f>
-        <v>83.5</v>
+        <v>103</v>
       </c>
       <c r="E52" s="1">
         <v>0.8</v>
@@ -9912,7 +10185,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37018333333333325</v>
+        <v>0.45663333333333322</v>
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
@@ -9920,7 +10193,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56951282051282048</v>
+        <v>0.70251282051282049</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -9938,7 +10211,7 @@
       </c>
       <c r="D53" s="1">
         <f ca="1">(Tracker!H53+Tracker!I53)/2</f>
-        <v>89</v>
+        <v>93.5</v>
       </c>
       <c r="E53" s="1">
         <v>0.8</v>
@@ -9968,7 +10241,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43402333333333332</v>
+        <v>0.45596833333333331</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
@@ -9976,7 +10249,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66772820512820519</v>
+        <v>0.7014897435897437</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -9994,7 +10267,7 @@
       </c>
       <c r="D54" s="1">
         <f ca="1">(Tracker!H54+Tracker!I54)/2</f>
-        <v>100.5</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1">
         <v>0.8</v>
@@ -10024,7 +10297,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49010499999999996</v>
+        <v>0.43889999999999996</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
@@ -10032,7 +10305,7 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="6"/>
-        <v>0.75400769230769238</v>
+        <v>0.6752307692307693</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -10050,7 +10323,7 @@
       </c>
       <c r="D55" s="1">
         <f ca="1">(Tracker!H55+Tracker!I55)/2</f>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E55" s="1">
         <v>0.8</v>
@@ -10080,7 +10353,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46613333333333345</v>
+        <v>0.50160000000000005</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
@@ -10088,7 +10361,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6755555555555558</v>
+        <v>0.72695652173913061</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -10106,7 +10379,7 @@
       </c>
       <c r="D56" s="1">
         <f ca="1">(Tracker!H56+Tracker!I56)/2</f>
-        <v>102.5</v>
+        <v>93</v>
       </c>
       <c r="E56" s="1">
         <v>0.8</v>
@@ -10136,7 +10409,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="4"/>
-        <v>0.642675</v>
+        <v>0.58311000000000002</v>
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
@@ -10144,7 +10417,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98873076923076941</v>
+        <v>0.89709230769230786</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -10162,7 +10435,7 @@
       </c>
       <c r="D57" s="1">
         <f ca="1">(Tracker!H57+Tracker!I57)/2</f>
-        <v>70</v>
+        <v>90.5</v>
       </c>
       <c r="E57" s="1">
         <v>0.8</v>
@@ -10192,7 +10465,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31920000000000009</v>
+        <v>0.4126800000000001</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
@@ -10200,7 +10473,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52327868852459025</v>
+        <v>0.67652459016393451</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -10218,7 +10491,7 @@
       </c>
       <c r="D58" s="1">
         <f ca="1">(Tracker!H58+Tracker!I58)/2</f>
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E58" s="1">
         <v>0.8</v>
@@ -10248,7 +10521,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47626666666666673</v>
+        <v>0.41546666666666676</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
@@ -10256,7 +10529,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73271794871794893</v>
+        <v>0.63917948717948736</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -10274,7 +10547,7 @@
       </c>
       <c r="D59" s="1">
         <f ca="1">(Tracker!H59+Tracker!I59)/2</f>
-        <v>90</v>
+        <v>92.5</v>
       </c>
       <c r="E59" s="1">
         <v>0.8</v>
@@ -10304,7 +10577,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36480000000000007</v>
+        <v>0.37493333333333345</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
@@ -10312,7 +10585,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59803278688524597</v>
+        <v>0.61464480874316951</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -10330,7 +10603,7 @@
       </c>
       <c r="D60" s="1">
         <f ca="1">(Tracker!H60+Tracker!I60)/2</f>
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E60" s="1">
         <v>0.8</v>
@@ -10360,7 +10633,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33642666666666676</v>
+        <v>0.41749333333333338</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
@@ -10368,7 +10641,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48757487922705334</v>
+        <v>0.60506280193236728</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -10386,7 +10659,7 @@
       </c>
       <c r="D61" s="1">
         <f ca="1">(Tracker!H61+Tracker!I61)/2</f>
-        <v>97</v>
+        <v>106.5</v>
       </c>
       <c r="E61" s="1">
         <v>0.8</v>
@@ -10416,7 +10689,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39317333333333343</v>
+        <v>0.43168000000000006</v>
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
@@ -10424,7 +10697,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81911111111111135</v>
+        <v>0.89933333333333354</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -10442,7 +10715,7 @@
       </c>
       <c r="D62" s="1">
         <f ca="1">(Tracker!H62+Tracker!I62)/2</f>
-        <v>106.5</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1">
         <v>0.8</v>
@@ -10472,7 +10745,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43168000000000006</v>
+        <v>0.35669333333333336</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
@@ -10480,7 +10753,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70767213114754102</v>
+        <v>0.58474316939890703</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -10498,7 +10771,7 @@
       </c>
       <c r="D63" s="1">
         <f ca="1">(Tracker!H63+Tracker!I63)/2</f>
-        <v>85.5</v>
+        <v>91.5</v>
       </c>
       <c r="E63" s="1">
         <v>0.8</v>
@@ -10528,7 +10801,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43320000000000008</v>
+        <v>0.46360000000000007</v>
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
@@ -10536,7 +10809,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76000000000000012</v>
+        <v>0.81333333333333335</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -10554,7 +10827,7 @@
       </c>
       <c r="D64" s="1">
         <f ca="1">(Tracker!H64+Tracker!I64)/2</f>
-        <v>98.5</v>
+        <v>79.5</v>
       </c>
       <c r="E64" s="1">
         <v>0.8</v>
@@ -10584,7 +10857,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49906666666666671</v>
+        <v>0.40280000000000005</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
@@ -10592,7 +10865,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="6"/>
-        <v>0.87555555555555553</v>
+        <v>0.70666666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -10610,7 +10883,7 @@
       </c>
       <c r="D65" s="1">
         <f ca="1">(Tracker!H65+Tracker!I65)/2</f>
-        <v>91.5</v>
+        <v>89</v>
       </c>
       <c r="E65" s="1">
         <v>0.8</v>
@@ -10640,7 +10913,7 @@
       </c>
       <c r="L65">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32451999999999998</v>
+        <v>0.31565333333333334</v>
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
@@ -10648,7 +10921,7 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53199999999999992</v>
+        <v>0.51746448087431685</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -10666,7 +10939,7 @@
       </c>
       <c r="D66" s="1">
         <f ca="1">(Tracker!H66+Tracker!I66)/2</f>
-        <v>81.5</v>
+        <v>94.5</v>
       </c>
       <c r="E66" s="1">
         <v>0.8</v>
@@ -10696,7 +10969,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37164000000000003</v>
+        <v>0.43092000000000003</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
@@ -10704,7 +10977,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.66364285714285709</v>
+        <v>0.76949999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -10722,7 +10995,7 @@
       </c>
       <c r="D67" s="1">
         <f ca="1">(Tracker!H67+Tracker!I67)/2</f>
-        <v>85.5</v>
+        <v>78</v>
       </c>
       <c r="E67" s="1">
         <v>0.8</v>
@@ -10752,7 +11025,7 @@
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43320000000000008</v>
+        <v>0.39520000000000005</v>
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
@@ -10760,7 +11033,7 @@
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62782608695652187</v>
+        <v>0.57275362318840595</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -10778,7 +11051,7 @@
       </c>
       <c r="D68" s="1">
         <f ca="1">(Tracker!H68+Tracker!I68)/2</f>
-        <v>70</v>
+        <v>96.5</v>
       </c>
       <c r="E68" s="1">
         <v>0.8</v>
@@ -10808,7 +11081,7 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19950000000000004</v>
+        <v>0.27502500000000002</v>
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
@@ -10816,7 +11089,7 @@
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35625000000000001</v>
+        <v>0.49111607142857144</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -10834,7 +11107,7 @@
       </c>
       <c r="D69" s="1">
         <f ca="1">(Tracker!H69+Tracker!I69)/2</f>
-        <v>80.5</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>0.8</v>
@@ -10864,7 +11137,7 @@
       </c>
       <c r="L69">
         <f t="shared" ref="L69:L86" ca="1" si="8">IF(D69=0, 0.5, MIN(1, MAX(0, (E69 * F69 * G69 * H69 * (D69 / 120)))))</f>
-        <v>0.36708000000000007</v>
+        <v>0.41496000000000011</v>
       </c>
       <c r="M69">
         <f t="shared" ref="M69:M86" si="9">IF(J69=0, 0.2, (0.4 * J69 + 0.3 * I69 + 0.3 * K69))</f>
@@ -10872,7 +11145,7 @@
       </c>
       <c r="O69">
         <f t="shared" ref="O69:O86" ca="1" si="10">L69/M69</f>
-        <v>0.56473846153846174</v>
+        <v>0.6384000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -10890,7 +11163,7 @@
       </c>
       <c r="D70" s="1">
         <f ca="1">(Tracker!H70+Tracker!I70)/2</f>
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E70" s="1">
         <v>0.8</v>
@@ -10920,7 +11193,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25365000000000004</v>
+        <v>0.28785000000000005</v>
       </c>
       <c r="M70">
         <f t="shared" si="9"/>
@@ -10928,7 +11201,7 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45294642857142858</v>
+        <v>0.51401785714285719</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -10946,7 +11219,7 @@
       </c>
       <c r="D71" s="1">
         <f ca="1">(Tracker!H71+Tracker!I71)/2</f>
-        <v>100.5</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>0.8</v>
@@ -10976,7 +11249,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25460000000000005</v>
+        <v>0.23053333333333337</v>
       </c>
       <c r="M71">
         <f t="shared" si="9"/>
@@ -10984,7 +11257,7 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39169230769230784</v>
+        <v>0.35466666666666674</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -11002,7 +11275,7 @@
       </c>
       <c r="D72" s="1">
         <f ca="1">(Tracker!H72+Tracker!I72)/2</f>
-        <v>86.5</v>
+        <v>103.5</v>
       </c>
       <c r="E72" s="1">
         <v>0.8</v>
@@ -11032,7 +11305,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30678666666666665</v>
+        <v>0.36708000000000002</v>
       </c>
       <c r="M72">
         <f t="shared" si="9"/>
@@ -11040,7 +11313,7 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44461835748792272</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -11058,7 +11331,7 @@
       </c>
       <c r="D73" s="1">
         <f ca="1">(Tracker!H73+Tracker!I73)/2</f>
-        <v>90.5</v>
+        <v>92.5</v>
       </c>
       <c r="E73" s="1">
         <v>0.8</v>
@@ -11088,7 +11361,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34389999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="M73">
         <f t="shared" si="9"/>
@@ -11096,7 +11369,7 @@
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56377049180327854</v>
+        <v>0.57622950819672114</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -11114,7 +11387,7 @@
       </c>
       <c r="D74" s="1">
         <f ca="1">(Tracker!H74+Tracker!I74)/2</f>
-        <v>105.5</v>
+        <v>86</v>
       </c>
       <c r="E74" s="1">
         <v>0.8</v>
@@ -11144,7 +11417,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="8"/>
-        <v>0.541215</v>
+        <v>0.44118000000000002</v>
       </c>
       <c r="M74">
         <f t="shared" si="9"/>
@@ -11152,7 +11425,7 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="10"/>
-        <v>0.88723770491803267</v>
+        <v>0.72324590163934421</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -11170,7 +11443,7 @@
       </c>
       <c r="D75" s="1">
         <f ca="1">(Tracker!H75+Tracker!I75)/2</f>
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E75" s="1">
         <v>0.8</v>
@@ -11200,7 +11473,7 @@
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2406666666666667</v>
+        <v>0.25586666666666669</v>
       </c>
       <c r="M75">
         <f t="shared" si="9"/>
@@ -11208,7 +11481,7 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="10"/>
-        <v>0.42222222222222222</v>
+        <v>0.44888888888888889</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -11226,7 +11499,7 @@
       </c>
       <c r="D76" s="1">
         <f ca="1">(Tracker!H76+Tracker!I76)/2</f>
-        <v>107</v>
+        <v>85.5</v>
       </c>
       <c r="E76" s="1">
         <v>0.8</v>
@@ -11256,7 +11529,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30495000000000005</v>
+        <v>0.24367500000000003</v>
       </c>
       <c r="M76">
         <f t="shared" si="9"/>
@@ -11264,7 +11537,7 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="10"/>
-        <v>0.49991803278688524</v>
+        <v>0.39946721311475408</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -11282,7 +11555,7 @@
       </c>
       <c r="D77" s="1">
         <f ca="1">(Tracker!H77+Tracker!I77)/2</f>
-        <v>104</v>
+        <v>98.5</v>
       </c>
       <c r="E77" s="1">
         <v>0.8</v>
@@ -11312,7 +11585,7 @@
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="8"/>
-        <v>0.26346666666666674</v>
+        <v>0.24953333333333336</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
@@ -11320,7 +11593,7 @@
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46222222222222231</v>
+        <v>0.43777777777777777</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -11338,7 +11611,7 @@
       </c>
       <c r="D78" s="1">
         <f ca="1">(Tracker!H78+Tracker!I78)/2</f>
-        <v>76.5</v>
+        <v>86.5</v>
       </c>
       <c r="E78" s="1">
         <v>0.8</v>
@@ -11368,7 +11641,7 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43604999999999999</v>
+        <v>0.49305000000000004</v>
       </c>
       <c r="M78">
         <f t="shared" si="9"/>
@@ -11376,7 +11649,7 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="10"/>
-        <v>0.63195652173913053</v>
+        <v>0.71456521739130452</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -11394,7 +11667,7 @@
       </c>
       <c r="D79" s="1">
         <f ca="1">(Tracker!H79+Tracker!I79)/2</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E79" s="1">
         <v>0.8</v>
@@ -11424,7 +11697,7 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20773333333333338</v>
+        <v>0.23306666666666673</v>
       </c>
       <c r="M79">
         <f t="shared" si="9"/>
@@ -11432,7 +11705,7 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="10"/>
-        <v>0.30106280193236723</v>
+        <v>0.3377777777777779</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -11450,7 +11723,7 @@
       </c>
       <c r="D80" s="1">
         <f ca="1">(Tracker!H80+Tracker!I80)/2</f>
-        <v>88.5</v>
+        <v>87.5</v>
       </c>
       <c r="E80" s="1">
         <v>0.8</v>
@@ -11480,7 +11753,7 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55489500000000014</v>
+        <v>0.54862500000000003</v>
       </c>
       <c r="M80">
         <f t="shared" si="9"/>
@@ -11488,7 +11761,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="10"/>
-        <v>0.85368461538461571</v>
+        <v>0.84403846153846174</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -11506,7 +11779,7 @@
       </c>
       <c r="D81" s="1">
         <f ca="1">(Tracker!H81+Tracker!I81)/2</f>
-        <v>87</v>
+        <v>75.5</v>
       </c>
       <c r="E81" s="1">
         <v>0.8</v>
@@ -11536,7 +11809,7 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24795</v>
+        <v>0.21517500000000001</v>
       </c>
       <c r="M81">
         <f t="shared" si="9"/>
@@ -11544,7 +11817,7 @@
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38146153846153852</v>
+        <v>0.33103846153846161</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -11562,7 +11835,7 @@
       </c>
       <c r="D82" s="1">
         <f ca="1">(Tracker!H82+Tracker!I82)/2</f>
-        <v>99.5</v>
+        <v>78.5</v>
       </c>
       <c r="E82" s="1">
         <v>0.8</v>
@@ -11592,7 +11865,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25206666666666672</v>
+        <v>0.19886666666666669</v>
       </c>
       <c r="M82">
         <f t="shared" si="9"/>
@@ -11600,7 +11873,7 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36531400966183586</v>
+        <v>0.28821256038647347</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -11618,7 +11891,7 @@
       </c>
       <c r="D83" s="1">
         <f ca="1">(Tracker!H83+Tracker!I83)/2</f>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E83" s="1">
         <v>0.8</v>
@@ -11648,7 +11921,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17733333333333337</v>
+        <v>0.20520000000000005</v>
       </c>
       <c r="M83">
         <f t="shared" si="9"/>
@@ -11656,7 +11929,7 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="10"/>
-        <v>0.27282051282051289</v>
+        <v>0.31569230769230783</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -11674,7 +11947,7 @@
       </c>
       <c r="D84" s="1">
         <f ca="1">(Tracker!H84+Tracker!I84)/2</f>
-        <v>106.5</v>
+        <v>101.5</v>
       </c>
       <c r="E84" s="1">
         <v>0.8</v>
@@ -11704,7 +11977,7 @@
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30352499999999999</v>
+        <v>0.289275</v>
       </c>
       <c r="M84">
         <f t="shared" si="9"/>
@@ -11712,7 +11985,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="10"/>
-        <v>0.46696153846153848</v>
+        <v>0.4450384615384616</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -11730,7 +12003,7 @@
       </c>
       <c r="D85" s="1">
         <f ca="1">(Tracker!H85+Tracker!I85)/2</f>
-        <v>105</v>
+        <v>94.5</v>
       </c>
       <c r="E85" s="1">
         <v>0.8</v>
@@ -11760,7 +12033,7 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="8"/>
-        <v>0.31920000000000004</v>
+        <v>0.28727999999999998</v>
       </c>
       <c r="M85">
         <f t="shared" si="9"/>
@@ -11768,7 +12041,7 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="10"/>
-        <v>0.49107692307692319</v>
+        <v>0.44196923076923078</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -11786,7 +12059,7 @@
       </c>
       <c r="D86" s="1">
         <f ca="1">(Tracker!H86+Tracker!I86)/2</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E86" s="1">
         <v>0.8</v>
@@ -11816,7 +12089,7 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38760000000000006</v>
+        <v>0.39216000000000001</v>
       </c>
       <c r="M86">
         <f t="shared" si="9"/>
@@ -11824,7 +12097,7 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/excel/example_app_tracker.xlsx
+++ b/excel/example_app_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graha\OneDrive\Documents\GitHub\application_tracker\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FD98F-4B47-47A5-AE79-D66B789D7AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8436C7F0-20EC-4FFB-8BF6-505AC879929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="19440" windowHeight="13720" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19440" windowHeight="13720" xr2:uid="{85E7A6A4-6F22-48D9-815F-FC03736B7AC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -971,9 +971,6 @@
     <t>Salary Max</t>
   </si>
   <si>
-    <t>Resume</t>
-  </si>
-  <si>
     <t>Resume 1</t>
   </si>
   <si>
@@ -984,6 +981,9 @@
   </si>
   <si>
     <t>Resume 4</t>
+  </si>
+  <si>
+    <t>Resume ID</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1594,8 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R82" sqref="R82"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,7 +1666,7 @@
         <v>250</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H33" ca="1" si="0">ROUND(RAND()*60+40,0)</f>
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I33" ca="1" si="1">ROUND(RAND()*40+90,0)</f>
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>239</v>
@@ -1724,7 +1724,7 @@
         <v>5/25</v>
       </c>
       <c r="Q2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>236</v>
@@ -1782,7 +1782,7 @@
         <v>5/25</v>
       </c>
       <c r="Q3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1809,11 +1809,11 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>237</v>
@@ -1835,7 +1835,7 @@
         <v>5/25</v>
       </c>
       <c r="Q4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>238</v>
@@ -1890,7 +1890,7 @@
         <v>5/25</v>
       </c>
       <c r="Q5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1917,11 +1917,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>235</v>
@@ -1948,7 +1948,7 @@
         <v>5/25</v>
       </c>
       <c r="Q6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1975,11 +1975,11 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>235</v>
@@ -2003,7 +2003,7 @@
         <v>5/25</v>
       </c>
       <c r="Q7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -2030,11 +2030,11 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>236</v>
@@ -2059,7 +2059,7 @@
         <v>5/25</v>
       </c>
       <c r="Q8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>237</v>
@@ -2117,7 +2117,7 @@
         <v>5/25</v>
       </c>
       <c r="Q9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -2144,11 +2144,11 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>236</v>
@@ -2170,7 +2170,7 @@
         <v>5/25</v>
       </c>
       <c r="Q10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -2197,11 +2197,11 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>237</v>
@@ -2225,7 +2225,7 @@
         <v>5/25</v>
       </c>
       <c r="Q11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>237</v>
@@ -2283,7 +2283,7 @@
         <v>5/25</v>
       </c>
       <c r="Q12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>236</v>
@@ -2338,7 +2338,7 @@
         <v>5/25</v>
       </c>
       <c r="Q13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -2365,11 +2365,11 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>237</v>
@@ -2393,7 +2393,7 @@
         <v>5/25</v>
       </c>
       <c r="Q14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -2420,11 +2420,11 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>236</v>
@@ -2445,7 +2445,7 @@
         <v>5/25</v>
       </c>
       <c r="Q15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -2472,11 +2472,11 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>238</v>
@@ -2497,7 +2497,7 @@
         <v>5/25</v>
       </c>
       <c r="Q16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
@@ -2524,11 +2524,11 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>236</v>
@@ -2552,7 +2552,7 @@
         <v>1/25</v>
       </c>
       <c r="Q17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
@@ -2579,11 +2579,11 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>237</v>
@@ -2607,7 +2607,7 @@
         <v>1/25</v>
       </c>
       <c r="Q18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -2634,11 +2634,11 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>236</v>
@@ -2662,7 +2662,7 @@
         <v>1/25</v>
       </c>
       <c r="Q19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
@@ -2689,11 +2689,11 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>238</v>
@@ -2717,7 +2717,7 @@
         <v>1/25</v>
       </c>
       <c r="Q20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
@@ -2744,11 +2744,11 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>238</v>
@@ -2769,7 +2769,7 @@
         <v>1/25</v>
       </c>
       <c r="Q21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
@@ -2796,11 +2796,11 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>235</v>
@@ -2824,7 +2824,7 @@
         <v>1/25</v>
       </c>
       <c r="Q22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
@@ -2851,11 +2851,11 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>235</v>
@@ -2879,7 +2879,7 @@
         <v>1/25</v>
       </c>
       <c r="Q23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
@@ -2906,11 +2906,11 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>238</v>
@@ -2937,7 +2937,7 @@
         <v>1/25</v>
       </c>
       <c r="Q24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -2964,11 +2964,11 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>237</v>
@@ -2992,7 +2992,7 @@
         <v>1/25</v>
       </c>
       <c r="Q25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
@@ -3019,11 +3019,11 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>237</v>
@@ -3044,7 +3044,7 @@
         <v>1/25</v>
       </c>
       <c r="Q26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
@@ -3071,11 +3071,11 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>238</v>
@@ -3096,7 +3096,7 @@
         <v>1/25</v>
       </c>
       <c r="Q27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3123,11 +3123,11 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>236</v>
@@ -3151,7 +3151,7 @@
         <v>1/25</v>
       </c>
       <c r="Q28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
@@ -3178,11 +3178,11 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>237</v>
@@ -3203,7 +3203,7 @@
         <v>1/25</v>
       </c>
       <c r="Q29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
@@ -3230,11 +3230,11 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>236</v>
@@ -3258,7 +3258,7 @@
         <v>1/25</v>
       </c>
       <c r="Q30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>239</v>
@@ -3313,7 +3313,7 @@
         <v>1/25</v>
       </c>
       <c r="Q31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
@@ -3340,11 +3340,11 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>239</v>
@@ -3366,7 +3366,7 @@
         <v>1/25</v>
       </c>
       <c r="Q32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
@@ -3393,11 +3393,11 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="1"/>
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>238</v>
@@ -3419,7 +3419,7 @@
         <v>1/25</v>
       </c>
       <c r="Q33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
@@ -3446,11 +3446,11 @@
       </c>
       <c r="H34">
         <f t="shared" ref="H34:H65" ca="1" si="5">ROUND(RAND()*60+40,0)</f>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I65" ca="1" si="6">ROUND(RAND()*40+90,0)</f>
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>239</v>
@@ -3471,7 +3471,7 @@
         <v>1/25</v>
       </c>
       <c r="Q34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>237</v>
@@ -3529,7 +3529,7 @@
         <v>1/25</v>
       </c>
       <c r="Q35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
@@ -3556,11 +3556,11 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>239</v>
@@ -3582,7 +3582,7 @@
         <v>1/25</v>
       </c>
       <c r="Q36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
@@ -3609,11 +3609,11 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>235</v>
@@ -3635,7 +3635,7 @@
         <v>1/25</v>
       </c>
       <c r="Q37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>237</v>
@@ -3687,7 +3687,7 @@
         <v>1/25</v>
       </c>
       <c r="Q38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="6"/>
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>238</v>
@@ -3740,7 +3740,7 @@
         <v>1/25</v>
       </c>
       <c r="Q39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
@@ -3767,11 +3767,11 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>239</v>
@@ -3795,7 +3795,7 @@
         <v>1/25</v>
       </c>
       <c r="Q40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
@@ -3822,11 +3822,11 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>239</v>
@@ -3847,7 +3847,7 @@
         <v>2/25</v>
       </c>
       <c r="Q41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
@@ -3874,11 +3874,11 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>237</v>
@@ -3899,7 +3899,7 @@
         <v>2/25</v>
       </c>
       <c r="Q42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.35">
@@ -3926,11 +3926,11 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>239</v>
@@ -3952,7 +3952,7 @@
         <v>2/25</v>
       </c>
       <c r="Q43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.35">
@@ -3979,11 +3979,11 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>239</v>
@@ -4004,7 +4004,7 @@
         <v>2/25</v>
       </c>
       <c r="Q44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.35">
@@ -4031,11 +4031,11 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>236</v>
@@ -4056,7 +4056,7 @@
         <v>2/25</v>
       </c>
       <c r="Q45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.35">
@@ -4083,11 +4083,11 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>239</v>
@@ -4114,7 +4114,7 @@
         <v>2/25</v>
       </c>
       <c r="Q46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.35">
@@ -4141,11 +4141,11 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="6"/>
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>235</v>
@@ -4166,7 +4166,7 @@
         <v>2/25</v>
       </c>
       <c r="Q47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.35">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="6"/>
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>237</v>
@@ -4218,7 +4218,7 @@
         <v>2/25</v>
       </c>
       <c r="Q48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.35">
@@ -4245,11 +4245,11 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>236</v>
@@ -4273,7 +4273,7 @@
         <v>2/25</v>
       </c>
       <c r="Q49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.35">
@@ -4300,11 +4300,11 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>236</v>
@@ -4326,7 +4326,7 @@
         <v>2/25</v>
       </c>
       <c r="Q50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.35">
@@ -4353,11 +4353,11 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="6"/>
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>235</v>
@@ -4378,7 +4378,7 @@
         <v>2/25</v>
       </c>
       <c r="Q51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.35">
@@ -4405,11 +4405,11 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="6"/>
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>237</v>
@@ -4433,7 +4433,7 @@
         <v>2/25</v>
       </c>
       <c r="Q52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.35">
@@ -4460,11 +4460,11 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="6"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>239</v>
@@ -4485,7 +4485,7 @@
         <v>2/25</v>
       </c>
       <c r="Q53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.35">
@@ -4512,11 +4512,11 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="5"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="6"/>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>237</v>
@@ -4537,7 +4537,7 @@
         <v>2/25</v>
       </c>
       <c r="Q54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.35">
@@ -4564,11 +4564,11 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="5"/>
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="6"/>
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>238</v>
@@ -4595,7 +4595,7 @@
         <v>2/25</v>
       </c>
       <c r="Q55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.35">
@@ -4622,11 +4622,11 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="6"/>
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>239</v>
@@ -4647,7 +4647,7 @@
         <v>2/25</v>
       </c>
       <c r="Q56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.35">
@@ -4674,11 +4674,11 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>236</v>
@@ -4699,7 +4699,7 @@
         <v>2/25</v>
       </c>
       <c r="Q57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.35">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>237</v>
@@ -4751,7 +4751,7 @@
         <v>2/25</v>
       </c>
       <c r="Q58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.35">
@@ -4778,11 +4778,11 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>236</v>
@@ -4806,7 +4806,7 @@
         <v>2/25</v>
       </c>
       <c r="Q59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.35">
@@ -4833,11 +4833,11 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="6"/>
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>238</v>
@@ -4858,7 +4858,7 @@
         <v>2/25</v>
       </c>
       <c r="Q60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.35">
@@ -4885,11 +4885,11 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>235</v>
@@ -4911,7 +4911,7 @@
         <v>2/25</v>
       </c>
       <c r="Q61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.35">
@@ -4938,11 +4938,11 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="6"/>
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>236</v>
@@ -4963,7 +4963,7 @@
         <v>2/25</v>
       </c>
       <c r="Q62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.35">
@@ -4990,11 +4990,11 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>235</v>
@@ -5015,7 +5015,7 @@
         <v>2/25</v>
       </c>
       <c r="Q63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.35">
@@ -5042,11 +5042,11 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>235</v>
@@ -5070,7 +5070,7 @@
         <v>3/25</v>
       </c>
       <c r="Q64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.35">
@@ -5097,11 +5097,11 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="6"/>
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>236</v>
@@ -5122,7 +5122,7 @@
         <v>3/25</v>
       </c>
       <c r="Q65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.35">
@@ -5149,11 +5149,11 @@
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H86" ca="1" si="9">ROUND(RAND()*60+40,0)</f>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I66">
         <f t="shared" ref="I66:I86" ca="1" si="10">ROUND(RAND()*40+90,0)</f>
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>237</v>
@@ -5178,7 +5178,7 @@
         <v>3/25</v>
       </c>
       <c r="Q66" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.35">
@@ -5205,11 +5205,11 @@
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="9"/>
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>238</v>
@@ -5233,7 +5233,7 @@
         <v>3/25</v>
       </c>
       <c r="Q67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.35">
@@ -5260,11 +5260,11 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>239</v>
@@ -5291,7 +5291,7 @@
         <v>3/25</v>
       </c>
       <c r="Q68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.35">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="10"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>237</v>
@@ -5346,7 +5346,7 @@
         <v>3/25</v>
       </c>
       <c r="Q69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.35">
@@ -5373,11 +5373,11 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>237</v>
@@ -5404,7 +5404,7 @@
         <v>3/25</v>
       </c>
       <c r="Q70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.35">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>237</v>
@@ -5459,7 +5459,7 @@
         <v>3/25</v>
       </c>
       <c r="Q71" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.35">
@@ -5486,11 +5486,11 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="10"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>238</v>
@@ -5511,7 +5511,7 @@
         <v>3/25</v>
       </c>
       <c r="Q72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.35">
@@ -5538,11 +5538,11 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="9"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="10"/>
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>236</v>
@@ -5566,7 +5566,7 @@
         <v>3/25</v>
       </c>
       <c r="Q73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.35">
@@ -5593,11 +5593,11 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>236</v>
@@ -5619,7 +5619,7 @@
         <v>3/25</v>
       </c>
       <c r="Q74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.35">
@@ -5646,11 +5646,11 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="10"/>
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>235</v>
@@ -5674,7 +5674,7 @@
         <v>4/25</v>
       </c>
       <c r="Q75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.35">
@@ -5701,11 +5701,11 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="10"/>
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>236</v>
@@ -5729,7 +5729,7 @@
         <v>4/25</v>
       </c>
       <c r="Q76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.35">
@@ -5756,11 +5756,11 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="10"/>
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>235</v>
@@ -5784,7 +5784,7 @@
         <v>4/25</v>
       </c>
       <c r="Q77" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.35">
@@ -5811,11 +5811,11 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="10"/>
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>238</v>
@@ -5836,7 +5836,7 @@
         <v>4/25</v>
       </c>
       <c r="Q78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.35">
@@ -5863,11 +5863,11 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="10"/>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>238</v>
@@ -5888,7 +5888,7 @@
         <v>4/25</v>
       </c>
       <c r="Q79" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.35">
@@ -5915,11 +5915,11 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="9"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>237</v>
@@ -5940,7 +5940,7 @@
         <v>4/25</v>
       </c>
       <c r="Q80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.35">
@@ -5967,11 +5967,11 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="10"/>
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>239</v>
@@ -5995,7 +5995,7 @@
         <v>4/25</v>
       </c>
       <c r="Q81" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.35">
@@ -6022,11 +6022,11 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>238</v>
@@ -6050,7 +6050,7 @@
         <v>4/25</v>
       </c>
       <c r="Q82" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.35">
@@ -6077,11 +6077,11 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>239</v>
@@ -6102,7 +6102,7 @@
         <v>4/25</v>
       </c>
       <c r="Q83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.35">
@@ -6129,11 +6129,11 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>237</v>
@@ -6157,7 +6157,7 @@
         <v>4/25</v>
       </c>
       <c r="Q84" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.35">
@@ -6184,11 +6184,11 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>237</v>
@@ -6209,7 +6209,7 @@
         <v>4/25</v>
       </c>
       <c r="Q85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.35">
@@ -6236,11 +6236,11 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="10"/>
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>235</v>
@@ -6262,7 +6262,7 @@
         <v>4/25</v>
       </c>
       <c r="Q86" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">(Tracker!H2+Tracker!I2)/2</f>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E2" s="1">
         <v>0.8</v>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="L2">
         <f ca="1">IF(D2=0, 0.5, MIN(1, MAX(0, (E2 * F2 * G2 * H2 * (D2 / 120)))))</f>
-        <v>0.29184000000000004</v>
+        <v>0.29031999999999997</v>
       </c>
       <c r="M2">
         <f>IF(J2=0, 0.2, (0.4 * J2 + 0.3 * I2 + 0.3 * K2))</f>
@@ -7393,7 +7393,7 @@
       </c>
       <c r="O2">
         <f ca="1">L2/M2</f>
-        <v>0.44898461538461554</v>
+        <v>0.44664615384615386</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">(Tracker!H3+Tracker!I3)/2</f>
-        <v>93.5</v>
+        <v>81.5</v>
       </c>
       <c r="E3" s="1">
         <v>0.8</v>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="1">IF(D3=0, 0.5, MIN(1, MAX(0, (E3 * F3 * G3 * H3 * (D3 / 120)))))</f>
-        <v>0.26647500000000002</v>
+        <v>0.23227500000000004</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" si="2">IF(J3=0, 0.2, (0.4 * J3 + 0.3 * I3 + 0.3 * K3))</f>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">L3/M3</f>
-        <v>0.43684426229508194</v>
+        <v>0.38077868852459018</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">(Tracker!H4+Tracker!I4)/2</f>
-        <v>87.5</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1">
         <v>0.8</v>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22166666666666668</v>
+        <v>0.2254666666666667</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34102564102564109</v>
+        <v>0.34687179487179498</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D5" s="1">
         <f ca="1">(Tracker!H5+Tracker!I5)/2</f>
-        <v>92.5</v>
+        <v>82.5</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L68" ca="1" si="4">IF(D5=0, 0.5, MIN(1, MAX(0, (E5 * F5 * G5 * H5 * (D5 / 120)))))</f>
-        <v>0.31635000000000002</v>
+        <v>0.28215000000000001</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M68" si="5">IF(J5=0, 0.2, (0.4 * J5 + 0.3 * I5 + 0.3 * K5))</f>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O68" ca="1" si="6">L5/M5</f>
-        <v>0.45847826086956528</v>
+        <v>0.40891304347826091</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D6" s="1">
         <f ca="1">(Tracker!H6+Tracker!I6)/2</f>
-        <v>95.5</v>
+        <v>109.5</v>
       </c>
       <c r="E6" s="1">
         <v>0.8</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32660999999999996</v>
+        <v>0.37448999999999999</v>
       </c>
       <c r="M6">
         <f t="shared" si="5"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57299999999999984</v>
+        <v>0.65699999999999992</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D7" s="1">
         <f ca="1">(Tracker!H7+Tracker!I7)/2</f>
-        <v>75.5</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1">
         <v>0.8</v>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28689999999999999</v>
+        <v>0.31919999999999993</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5033333333333333</v>
+        <v>0.55999999999999983</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="D8" s="1">
         <f ca="1">(Tracker!H8+Tracker!I8)/2</f>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1">
         <v>0.8</v>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35466666666666669</v>
+        <v>0.28018666666666664</v>
       </c>
       <c r="M8">
         <f t="shared" si="5"/>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58142076502732232</v>
+        <v>0.45932240437158456</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D9" s="1">
         <f ca="1">(Tracker!H9+Tracker!I9)/2</f>
-        <v>112.5</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1">
         <v>0.8</v>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.577125</v>
+        <v>0.37448999999999999</v>
       </c>
       <c r="M9">
         <f t="shared" si="5"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88788461538461549</v>
+        <v>0.5761384615384616</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D10" s="1">
         <f ca="1">(Tracker!H10+Tracker!I10)/2</f>
-        <v>96</v>
+        <v>73.5</v>
       </c>
       <c r="E10" s="1">
         <v>0.8</v>
@@ -7833,7 +7833,7 @@
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24320000000000006</v>
+        <v>0.18620000000000003</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39868852459016396</v>
+        <v>0.30524590163934429</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="D11" s="1">
         <f ca="1">(Tracker!H11+Tracker!I11)/2</f>
-        <v>79</v>
+        <v>98.5</v>
       </c>
       <c r="E11" s="1">
         <v>0.8</v>
@@ -7889,7 +7889,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22515000000000002</v>
+        <v>0.280725</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34638461538461546</v>
+        <v>0.43188461538461542</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D12" s="1">
         <f ca="1">(Tracker!H12+Tracker!I12)/2</f>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1">
         <v>0.8</v>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27701999999999999</v>
+        <v>0.25308000000000003</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42618461538461544</v>
+        <v>0.38935384615384627</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="D13" s="1">
         <f ca="1">(Tracker!H13+Tracker!I13)/2</f>
-        <v>93</v>
+        <v>90.5</v>
       </c>
       <c r="E13" s="1">
         <v>0.8</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31806000000000001</v>
+        <v>0.30951000000000001</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52140983606557367</v>
+        <v>0.50739344262295072</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="D14" s="1">
         <f ca="1">(Tracker!H14+Tracker!I14)/2</f>
-        <v>104.5</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1">
         <v>0.8</v>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46328333333333327</v>
+        <v>0.42559999999999998</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.71274358974358976</v>
+        <v>0.65476923076923077</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D15" s="1">
         <f ca="1">(Tracker!H15+Tracker!I15)/2</f>
-        <v>78</v>
+        <v>70.5</v>
       </c>
       <c r="E15" s="1">
         <v>0.8</v>
@@ -8113,7 +8113,7 @@
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22230000000000003</v>
+        <v>0.20092500000000002</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3644262295081967</v>
+        <v>0.32938524590163931</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="D16" s="1">
         <f ca="1">(Tracker!H16+Tracker!I16)/2</f>
-        <v>91.5</v>
+        <v>88.5</v>
       </c>
       <c r="E16" s="1">
         <v>0.8</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.23180000000000003</v>
+        <v>0.22420000000000004</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33594202898550735</v>
+        <v>0.32492753623188414</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D17" s="1">
         <f ca="1">(Tracker!H17+Tracker!I17)/2</f>
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E17" s="1">
         <v>0.8</v>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35568000000000005</v>
+        <v>0.48792000000000002</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
@@ -8233,7 +8233,7 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58308196721311478</v>
+        <v>0.79986885245901629</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D18" s="1">
         <f ca="1">(Tracker!H18+Tracker!I18)/2</f>
-        <v>89.5</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
         <v>0.8</v>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40812000000000004</v>
+        <v>0.36480000000000001</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62787692307692322</v>
+        <v>0.56123076923076931</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D19" s="1">
         <f ca="1">(Tracker!H19+Tracker!I19)/2</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="1">
         <v>0.8</v>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2254666666666667</v>
+        <v>0.20773333333333338</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36961748633879782</v>
+        <v>0.34054644808743173</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D20" s="1">
         <f ca="1">(Tracker!H20+Tracker!I20)/2</f>
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1">
         <v>0.8</v>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40584000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58817391304347832</v>
+        <v>0.49565217391304356</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D21" s="1">
         <f ca="1">(Tracker!H21+Tracker!I21)/2</f>
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="E21" s="1">
         <v>0.8</v>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39710000000000001</v>
+        <v>0.39918999999999999</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57550724637681161</v>
+        <v>0.57853623188405801</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D22" s="1">
         <f ca="1">(Tracker!H22+Tracker!I22)/2</f>
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="E22" s="1">
         <v>0.8</v>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24320000000000006</v>
+        <v>0.24446666666666672</v>
       </c>
       <c r="M22">
         <f t="shared" si="5"/>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42666666666666669</v>
+        <v>0.42888888888888893</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="D23" s="1">
         <f ca="1">(Tracker!H23+Tracker!I23)/2</f>
-        <v>101</v>
+        <v>89.5</v>
       </c>
       <c r="E23" s="1">
         <v>0.8</v>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25586666666666669</v>
+        <v>0.22673333333333337</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44888888888888889</v>
+        <v>0.39777777777777779</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="D24" s="1">
         <f ca="1">(Tracker!H24+Tracker!I24)/2</f>
-        <v>91</v>
+        <v>88.5</v>
       </c>
       <c r="E24" s="1">
         <v>0.8</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34579999999999994</v>
+        <v>0.33629999999999999</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.50115942028985505</v>
+        <v>0.48739130434782613</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D25" s="1">
         <f ca="1">(Tracker!H25+Tracker!I25)/2</f>
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="E25" s="1">
         <v>0.8</v>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33515999999999996</v>
+        <v>0.26334000000000002</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51563076923076923</v>
+        <v>0.40513846153846161</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D26" s="1">
         <f ca="1">(Tracker!H26+Tracker!I26)/2</f>
-        <v>108</v>
+        <v>75.5</v>
       </c>
       <c r="E26" s="1">
         <v>0.8</v>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27360000000000007</v>
+        <v>0.1912666666666667</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42092307692307707</v>
+        <v>0.29425641025641036</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D27" s="1">
         <f ca="1">(Tracker!H27+Tracker!I27)/2</f>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E27" s="1">
         <v>0.8</v>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34453333333333341</v>
+        <v>0.40533333333333343</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49932367149758472</v>
+        <v>0.58743961352657026</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="D28" s="1">
         <f ca="1">(Tracker!H28+Tracker!I28)/2</f>
-        <v>97.5</v>
+        <v>99.5</v>
       </c>
       <c r="E28" s="1">
         <v>0.8</v>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27787500000000004</v>
+        <v>0.28357500000000002</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4555327868852459</v>
+        <v>0.46487704918032785</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D29" s="1">
         <f ca="1">(Tracker!H29+Tracker!I29)/2</f>
-        <v>74.5</v>
+        <v>90.5</v>
       </c>
       <c r="E29" s="1">
         <v>0.8</v>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29725499999999999</v>
+        <v>0.36109499999999994</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45731538461538468</v>
+        <v>0.55553076923076927</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D30" s="1">
         <f ca="1">(Tracker!H30+Tracker!I30)/2</f>
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="E30" s="1">
         <v>0.8</v>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48893333333333344</v>
+        <v>0.48640000000000011</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.80153005464480875</v>
+        <v>0.79737704918032792</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D31" s="1">
         <f ca="1">(Tracker!H31+Tracker!I31)/2</f>
-        <v>72.5</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1">
         <v>0.8</v>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.18366666666666667</v>
+        <v>0.25333333333333341</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
@@ -9017,7 +9017,7 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28256410256410264</v>
+        <v>0.38974358974358991</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="D32" s="1">
         <f ca="1">(Tracker!H32+Tracker!I32)/2</f>
-        <v>87.5</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>0.8</v>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33249999999999996</v>
+        <v>0.31919999999999993</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
@@ -9073,7 +9073,7 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5115384615384615</v>
+        <v>0.49107692307692302</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D33" s="1">
         <f ca="1">(Tracker!H33+Tracker!I33)/2</f>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E33" s="1">
         <v>0.8</v>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21786666666666671</v>
+        <v>0.21533333333333338</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31574879227053149</v>
+        <v>0.31207729468599044</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D34" s="1">
         <f ca="1">(Tracker!H34+Tracker!I34)/2</f>
-        <v>87.5</v>
+        <v>76.5</v>
       </c>
       <c r="E34" s="1">
         <v>0.8</v>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36575000000000002</v>
+        <v>0.31977</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56269230769230782</v>
+        <v>0.49195384615384624</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="D35" s="1">
         <f ca="1">(Tracker!H35+Tracker!I35)/2</f>
-        <v>89</v>
+        <v>75.5</v>
       </c>
       <c r="E35" s="1">
         <v>0.8</v>
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27056000000000002</v>
+        <v>0.22952</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41624615384615393</v>
+        <v>0.35310769230769234</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D36" s="1">
         <f ca="1">(Tracker!H36+Tracker!I36)/2</f>
-        <v>92.5</v>
+        <v>83</v>
       </c>
       <c r="E36" s="1">
         <v>0.8</v>
@@ -9289,7 +9289,7 @@
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38665000000000005</v>
+        <v>0.34694000000000003</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59484615384615402</v>
+        <v>0.53375384615384625</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D37" s="1">
         <f ca="1">(Tracker!H37+Tracker!I37)/2</f>
-        <v>94</v>
+        <v>88.5</v>
       </c>
       <c r="E37" s="1">
         <v>0.8</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39292000000000005</v>
+        <v>0.36993000000000004</v>
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68933333333333335</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D38" s="1">
         <f ca="1">(Tracker!H38+Tracker!I38)/2</f>
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="E38" s="1">
         <v>0.8</v>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31635000000000002</v>
+        <v>0.31292999999999999</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48669230769230781</v>
+        <v>0.48143076923076927</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D39" s="1">
         <f ca="1">(Tracker!H39+Tracker!I39)/2</f>
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1">
         <v>0.8</v>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26954666666666666</v>
+        <v>0.35821333333333333</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39064734299516912</v>
+        <v>0.51914975845410627</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="D40" s="1">
         <f ca="1">(Tracker!H40+Tracker!I40)/2</f>
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1">
         <v>0.8</v>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.38791666666666658</v>
+        <v>0.39013333333333322</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59679487179487178</v>
+        <v>0.60020512820512817</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D41" s="1">
         <f ca="1">(Tracker!H41+Tracker!I41)/2</f>
-        <v>90.5</v>
+        <v>77.5</v>
       </c>
       <c r="E41" s="1">
         <v>0.8</v>
@@ -9569,7 +9569,7 @@
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40121666666666661</v>
+        <v>0.3435833333333333</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6172564102564102</v>
+        <v>0.52858974358974364</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D42" s="1">
         <f ca="1">(Tracker!H42+Tracker!I42)/2</f>
-        <v>92</v>
+        <v>101.5</v>
       </c>
       <c r="E42" s="1">
         <v>0.8</v>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40786666666666666</v>
+        <v>0.44998333333333324</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62748717948717958</v>
+        <v>0.69228205128205123</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="D43" s="1">
         <f ca="1">(Tracker!H43+Tracker!I43)/2</f>
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1">
         <v>0.8</v>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36936000000000002</v>
+        <v>0.30437999999999998</v>
       </c>
       <c r="M43">
         <f t="shared" si="5"/>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="6"/>
-        <v>0.56824615384615396</v>
+        <v>0.46827692307692309</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="D44" s="1">
         <f ca="1">(Tracker!H44+Tracker!I44)/2</f>
-        <v>90.5</v>
+        <v>79.5</v>
       </c>
       <c r="E44" s="1">
         <v>0.8</v>
@@ -9737,7 +9737,7 @@
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44133833333333328</v>
+        <v>0.38769499999999996</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67898205128205125</v>
+        <v>0.59645384615384622</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D45" s="1">
         <f ca="1">(Tracker!H45+Tracker!I45)/2</f>
-        <v>94.5</v>
+        <v>106.5</v>
       </c>
       <c r="E45" s="1">
         <v>0.8</v>
@@ -9793,7 +9793,7 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32318999999999998</v>
+        <v>0.36422999999999994</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52981967213114745</v>
+        <v>0.59709836065573751</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D46" s="1">
         <f ca="1">(Tracker!H46+Tracker!I46)/2</f>
-        <v>80.5</v>
+        <v>108.5</v>
       </c>
       <c r="E46" s="1">
         <v>0.8</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32119499999999995</v>
+        <v>0.43291499999999994</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49414615384615385</v>
+        <v>0.66602307692307694</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">(Tracker!H47+Tracker!I47)/2</f>
-        <v>93.5</v>
+        <v>91.5</v>
       </c>
       <c r="E47" s="1">
         <v>0.8</v>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28423999999999999</v>
+        <v>0.27816000000000002</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49866666666666659</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D48" s="1">
         <f ca="1">(Tracker!H48+Tracker!I48)/2</f>
-        <v>86.5</v>
+        <v>108.5</v>
       </c>
       <c r="E48" s="1">
         <v>0.8</v>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26296000000000003</v>
+        <v>0.32984000000000002</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40455384615384626</v>
+        <v>0.50744615384615399</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">(Tracker!H49+Tracker!I49)/2</f>
-        <v>91</v>
+        <v>81.5</v>
       </c>
       <c r="E49" s="1">
         <v>0.8</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27664</v>
+        <v>0.24776000000000001</v>
       </c>
       <c r="M49">
         <f t="shared" si="5"/>
@@ -10025,7 +10025,7 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45350819672131137</v>
+        <v>0.40616393442622944</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D50" s="1">
         <f ca="1">(Tracker!H50+Tracker!I50)/2</f>
-        <v>95.5</v>
+        <v>97.5</v>
       </c>
       <c r="E50" s="1">
         <v>0.8</v>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.36289999999999994</v>
+        <v>0.37049999999999994</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
@@ -10081,7 +10081,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.59491803278688504</v>
+        <v>0.60737704918032764</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="D51" s="1">
         <f ca="1">(Tracker!H51+Tracker!I51)/2</f>
-        <v>93.5</v>
+        <v>105.5</v>
       </c>
       <c r="E51" s="1">
         <v>0.8</v>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="4"/>
-        <v>0.28423999999999999</v>
+        <v>0.32072000000000001</v>
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49866666666666659</v>
+        <v>0.56266666666666665</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D52" s="1">
         <f ca="1">(Tracker!H52+Tracker!I52)/2</f>
-        <v>103</v>
+        <v>110.5</v>
       </c>
       <c r="E52" s="1">
         <v>0.8</v>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45663333333333322</v>
+        <v>0.48988333333333323</v>
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70251282051282049</v>
+        <v>0.7536666666666666</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D53" s="1">
         <f ca="1">(Tracker!H53+Tracker!I53)/2</f>
-        <v>93.5</v>
+        <v>77.5</v>
       </c>
       <c r="E53" s="1">
         <v>0.8</v>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45596833333333331</v>
+        <v>0.37794166666666668</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7014897435897437</v>
+        <v>0.581448717948718</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D54" s="1">
         <f ca="1">(Tracker!H54+Tracker!I54)/2</f>
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E54" s="1">
         <v>0.8</v>
@@ -10297,7 +10297,7 @@
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43889999999999996</v>
+        <v>0.40476333333333331</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6752307692307693</v>
+        <v>0.62271282051282051</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="D55" s="1">
         <f ca="1">(Tracker!H55+Tracker!I55)/2</f>
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="1">
         <v>0.8</v>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="L55">
         <f t="shared" ca="1" si="4"/>
-        <v>0.50160000000000005</v>
+        <v>0.49146666666666677</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72695652173913061</v>
+        <v>0.71227053140096641</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D56" s="1">
         <f ca="1">(Tracker!H56+Tracker!I56)/2</f>
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E56" s="1">
         <v>0.8</v>
@@ -10409,7 +10409,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="4"/>
-        <v>0.58311000000000002</v>
+        <v>0.6771600000000001</v>
       </c>
       <c r="M56">
         <f t="shared" si="5"/>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89709230769230786</v>
+        <v>1.0417846153846158</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="D57" s="1">
         <f ca="1">(Tracker!H57+Tracker!I57)/2</f>
-        <v>90.5</v>
+        <v>94</v>
       </c>
       <c r="E57" s="1">
         <v>0.8</v>
@@ -10465,7 +10465,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4126800000000001</v>
+        <v>0.42864000000000008</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
@@ -10473,7 +10473,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="6"/>
-        <v>0.67652459016393451</v>
+        <v>0.70268852459016395</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D58" s="1">
         <f ca="1">(Tracker!H58+Tracker!I58)/2</f>
-        <v>82</v>
+        <v>88.5</v>
       </c>
       <c r="E58" s="1">
         <v>0.8</v>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41546666666666676</v>
+        <v>0.44840000000000008</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="6"/>
-        <v>0.63917948717948736</v>
+        <v>0.68984615384615411</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -10547,7 +10547,7 @@
       </c>
       <c r="D59" s="1">
         <f ca="1">(Tracker!H59+Tracker!I59)/2</f>
-        <v>92.5</v>
+        <v>71</v>
       </c>
       <c r="E59" s="1">
         <v>0.8</v>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37493333333333345</v>
+        <v>0.28778666666666675</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="6"/>
-        <v>0.61464480874316951</v>
+        <v>0.47178142076502738</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D60" s="1">
         <f ca="1">(Tracker!H60+Tracker!I60)/2</f>
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E60" s="1">
         <v>0.8</v>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41749333333333338</v>
+        <v>0.37696000000000007</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60506280193236728</v>
+        <v>0.54631884057971025</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D61" s="1">
         <f ca="1">(Tracker!H61+Tracker!I61)/2</f>
-        <v>106.5</v>
+        <v>67</v>
       </c>
       <c r="E61" s="1">
         <v>0.8</v>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43168000000000006</v>
+        <v>0.27157333333333339</v>
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89933333333333354</v>
+        <v>0.56577777777777793</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D62" s="1">
         <f ca="1">(Tracker!H62+Tracker!I62)/2</f>
-        <v>88</v>
+        <v>88.5</v>
       </c>
       <c r="E62" s="1">
         <v>0.8</v>
@@ -10745,7 +10745,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35669333333333336</v>
+        <v>0.35872000000000009</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58474316939890703</v>
+        <v>0.58806557377049185</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="D63" s="1">
         <f ca="1">(Tracker!H63+Tracker!I63)/2</f>
-        <v>91.5</v>
+        <v>106</v>
       </c>
       <c r="E63" s="1">
         <v>0.8</v>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="L63">
         <f t="shared" ca="1" si="4"/>
-        <v>0.46360000000000007</v>
+        <v>0.53706666666666669</v>
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="6"/>
-        <v>0.81333333333333335</v>
+        <v>0.94222222222222218</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="D64" s="1">
         <f ca="1">(Tracker!H64+Tracker!I64)/2</f>
-        <v>79.5</v>
+        <v>88</v>
       </c>
       <c r="E64" s="1">
         <v>0.8</v>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="L64">
         <f t="shared" ca="1" si="4"/>
-        <v>0.40280000000000005</v>
+        <v>0.44586666666666669</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="6"/>
-        <v>0.70666666666666667</v>
+        <v>0.78222222222222215</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D66" s="1">
         <f ca="1">(Tracker!H66+Tracker!I66)/2</f>
-        <v>94.5</v>
+        <v>106</v>
       </c>
       <c r="E66" s="1">
         <v>0.8</v>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="L66">
         <f t="shared" ca="1" si="4"/>
-        <v>0.43092000000000003</v>
+        <v>0.48336000000000001</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76949999999999996</v>
+        <v>0.8631428571428571</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="D67" s="1">
         <f ca="1">(Tracker!H67+Tracker!I67)/2</f>
-        <v>78</v>
+        <v>84.5</v>
       </c>
       <c r="E67" s="1">
         <v>0.8</v>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="L67">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39520000000000005</v>
+        <v>0.42813333333333342</v>
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
@@ -11033,7 +11033,7 @@
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57275362318840595</v>
+        <v>0.62048309178743977</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D68" s="1">
         <f ca="1">(Tracker!H68+Tracker!I68)/2</f>
-        <v>96.5</v>
+        <v>86.5</v>
       </c>
       <c r="E68" s="1">
         <v>0.8</v>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="L68">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27502500000000002</v>
+        <v>0.24652500000000002</v>
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
@@ -11089,7 +11089,7 @@
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49111607142857144</v>
+        <v>0.44022321428571426</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D69" s="1">
         <f ca="1">(Tracker!H69+Tracker!I69)/2</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E69" s="1">
         <v>0.8</v>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L69">
         <f t="shared" ref="L69:L86" ca="1" si="8">IF(D69=0, 0.5, MIN(1, MAX(0, (E69 * F69 * G69 * H69 * (D69 / 120)))))</f>
-        <v>0.41496000000000011</v>
+        <v>0.42864000000000008</v>
       </c>
       <c r="M69">
         <f t="shared" ref="M69:M86" si="9">IF(J69=0, 0.2, (0.4 * J69 + 0.3 * I69 + 0.3 * K69))</f>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O69">
         <f t="shared" ref="O69:O86" ca="1" si="10">L69/M69</f>
-        <v>0.6384000000000003</v>
+        <v>0.65944615384615402</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="D70" s="1">
         <f ca="1">(Tracker!H70+Tracker!I70)/2</f>
-        <v>101</v>
+        <v>91.5</v>
       </c>
       <c r="E70" s="1">
         <v>0.8</v>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="L70">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28785000000000005</v>
+        <v>0.26077499999999998</v>
       </c>
       <c r="M70">
         <f t="shared" si="9"/>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="10"/>
-        <v>0.51401785714285719</v>
+        <v>0.4656696428571428</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D71" s="1">
         <f ca="1">(Tracker!H71+Tracker!I71)/2</f>
-        <v>91</v>
+        <v>107.5</v>
       </c>
       <c r="E71" s="1">
         <v>0.8</v>
@@ -11249,7 +11249,7 @@
       </c>
       <c r="L71">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23053333333333337</v>
+        <v>0.27233333333333337</v>
       </c>
       <c r="M71">
         <f t="shared" si="9"/>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35466666666666674</v>
+        <v>0.41897435897435908</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D72" s="1">
         <f ca="1">(Tracker!H72+Tracker!I72)/2</f>
-        <v>103.5</v>
+        <v>96.5</v>
       </c>
       <c r="E72" s="1">
         <v>0.8</v>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="L72">
         <f t="shared" ca="1" si="8"/>
-        <v>0.36708000000000002</v>
+        <v>0.34225333333333335</v>
       </c>
       <c r="M72">
         <f t="shared" si="9"/>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="10"/>
-        <v>0.53200000000000003</v>
+        <v>0.49601932367149765</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="D73" s="1">
         <f ca="1">(Tracker!H73+Tracker!I73)/2</f>
-        <v>92.5</v>
+        <v>87</v>
       </c>
       <c r="E73" s="1">
         <v>0.8</v>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="L73">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35149999999999998</v>
+        <v>0.33059999999999995</v>
       </c>
       <c r="M73">
         <f t="shared" si="9"/>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57622950819672114</v>
+        <v>0.54196721311475393</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="D74" s="1">
         <f ca="1">(Tracker!H74+Tracker!I74)/2</f>
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E74" s="1">
         <v>0.8</v>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L74">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44118000000000002</v>
+        <v>0.33858000000000005</v>
       </c>
       <c r="M74">
         <f t="shared" si="9"/>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="10"/>
-        <v>0.72324590163934421</v>
+        <v>0.55504918032786887</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="D75" s="1">
         <f ca="1">(Tracker!H75+Tracker!I75)/2</f>
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E75" s="1">
         <v>0.8</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="L75">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25586666666666669</v>
+        <v>0.22293333333333334</v>
       </c>
       <c r="M75">
         <f t="shared" si="9"/>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44888888888888889</v>
+        <v>0.39111111111111108</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D76" s="1">
         <f ca="1">(Tracker!H76+Tracker!I76)/2</f>
-        <v>85.5</v>
+        <v>91.5</v>
       </c>
       <c r="E76" s="1">
         <v>0.8</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="L76">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24367500000000003</v>
+        <v>0.26077499999999998</v>
       </c>
       <c r="M76">
         <f t="shared" si="9"/>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="10"/>
-        <v>0.39946721311475408</v>
+        <v>0.42749999999999988</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="D77" s="1">
         <f ca="1">(Tracker!H77+Tracker!I77)/2</f>
-        <v>98.5</v>
+        <v>68.5</v>
       </c>
       <c r="E77" s="1">
         <v>0.8</v>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="L77">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24953333333333336</v>
+        <v>0.17353333333333334</v>
       </c>
       <c r="M77">
         <f t="shared" si="9"/>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43777777777777777</v>
+        <v>0.30444444444444441</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D78" s="1">
         <f ca="1">(Tracker!H78+Tracker!I78)/2</f>
-        <v>86.5</v>
+        <v>107</v>
       </c>
       <c r="E78" s="1">
         <v>0.8</v>
@@ -11641,7 +11641,7 @@
       </c>
       <c r="L78">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49305000000000004</v>
+        <v>0.60990000000000011</v>
       </c>
       <c r="M78">
         <f t="shared" si="9"/>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="10"/>
-        <v>0.71456521739130452</v>
+        <v>0.88391304347826105</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.35">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D79" s="1">
         <f ca="1">(Tracker!H79+Tracker!I79)/2</f>
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E79" s="1">
         <v>0.8</v>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="L79">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23306666666666673</v>
+        <v>0.26093333333333335</v>
       </c>
       <c r="M79">
         <f t="shared" si="9"/>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="10"/>
-        <v>0.3377777777777779</v>
+        <v>0.37816425120772951</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="D80" s="1">
         <f ca="1">(Tracker!H80+Tracker!I80)/2</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="E80" s="1">
         <v>0.8</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="L80">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54862500000000003</v>
+        <v>0.56430000000000002</v>
       </c>
       <c r="M80">
         <f t="shared" si="9"/>
@@ -11761,7 +11761,7 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="10"/>
-        <v>0.84403846153846174</v>
+        <v>0.86815384615384628</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D81" s="1">
         <f ca="1">(Tracker!H81+Tracker!I81)/2</f>
-        <v>75.5</v>
+        <v>82</v>
       </c>
       <c r="E81" s="1">
         <v>0.8</v>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="L81">
         <f t="shared" ca="1" si="8"/>
-        <v>0.21517500000000001</v>
+        <v>0.23370000000000002</v>
       </c>
       <c r="M81">
         <f t="shared" si="9"/>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="10"/>
-        <v>0.33103846153846161</v>
+        <v>0.35953846153846164</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D82" s="1">
         <f ca="1">(Tracker!H82+Tracker!I82)/2</f>
-        <v>78.5</v>
+        <v>111</v>
       </c>
       <c r="E82" s="1">
         <v>0.8</v>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="L82">
         <f t="shared" ca="1" si="8"/>
-        <v>0.19886666666666669</v>
+        <v>0.28120000000000006</v>
       </c>
       <c r="M82">
         <f t="shared" si="9"/>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28821256038647347</v>
+        <v>0.40753623188405808</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.35">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="D83" s="1">
         <f ca="1">(Tracker!H83+Tracker!I83)/2</f>
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E83" s="1">
         <v>0.8</v>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="L83">
         <f t="shared" ca="1" si="8"/>
-        <v>0.20520000000000005</v>
+        <v>0.16973333333333337</v>
       </c>
       <c r="M83">
         <f t="shared" si="9"/>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="10"/>
-        <v>0.31569230769230783</v>
+        <v>0.26112820512820523</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
@@ -11947,7 +11947,7 @@
       </c>
       <c r="D84" s="1">
         <f ca="1">(Tracker!H84+Tracker!I84)/2</f>
-        <v>101.5</v>
+        <v>96</v>
       </c>
       <c r="E84" s="1">
         <v>0.8</v>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L84">
         <f t="shared" ca="1" si="8"/>
-        <v>0.289275</v>
+        <v>0.27360000000000001</v>
       </c>
       <c r="M84">
         <f t="shared" si="9"/>
@@ -11985,7 +11985,7 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="10"/>
-        <v>0.4450384615384616</v>
+        <v>0.42092307692307701</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
@@ -12003,7 +12003,7 @@
       </c>
       <c r="D85" s="1">
         <f ca="1">(Tracker!H85+Tracker!I85)/2</f>
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="E85" s="1">
         <v>0.8</v>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="L85">
         <f t="shared" ca="1" si="8"/>
-        <v>0.28727999999999998</v>
+        <v>0.28576000000000001</v>
       </c>
       <c r="M85">
         <f t="shared" si="9"/>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44196923076923078</v>
+        <v>0.43963076923076932</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="D86" s="1">
         <f ca="1">(Tracker!H86+Tracker!I86)/2</f>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E86" s="1">
         <v>0.8</v>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="L86">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39216000000000001</v>
+        <v>0.36480000000000001</v>
       </c>
       <c r="M86">
         <f t="shared" si="9"/>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="10"/>
-        <v>0.68799999999999994</v>
+        <v>0.6399999999999999</v>
       </c>
     </row>
   </sheetData>
